--- a/data/trans_orig/CoTrAQ_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>165247</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>150294</v>
+        <v>148616</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>183496</v>
+        <v>182134</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6097962138674931</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5546134223474622</v>
+        <v>0.5484223366172077</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6771352524195364</v>
+        <v>0.6721092579247498</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -763,19 +763,19 @@
         <v>122104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105916</v>
+        <v>106518</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135617</v>
+        <v>137437</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.570061677349527</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4944832143652478</v>
+        <v>0.4972923299232204</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6331485036112946</v>
+        <v>0.6416463170360077</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>266</v>
@@ -784,19 +784,19 @@
         <v>287352</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265643</v>
+        <v>263503</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>307845</v>
+        <v>309226</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5922545230929384</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5475105474728815</v>
+        <v>0.5431000454754261</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6344933024925884</v>
+        <v>0.6373381035924335</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>105741</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87492</v>
+        <v>88854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>120694</v>
+        <v>122372</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3902037861325069</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3228647475804641</v>
+        <v>0.3278907420752502</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4453865776525378</v>
+        <v>0.4515776633827923</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -834,19 +834,19 @@
         <v>92091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>78578</v>
+        <v>76758</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108279</v>
+        <v>107677</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4299383226504731</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3668514963887054</v>
+        <v>0.3583536829639922</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5055167856347523</v>
+        <v>0.5027076700767795</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>183</v>
@@ -855,19 +855,19 @@
         <v>197831</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>177338</v>
+        <v>175957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>219540</v>
+        <v>221680</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4077454769070616</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3655066975074119</v>
+        <v>0.3626618964075665</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4524894525271185</v>
+        <v>0.4568999545245738</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>257102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>238329</v>
+        <v>238577</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>275322</v>
+        <v>275932</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6906995035126413</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6402674364793174</v>
+        <v>0.6409339331194163</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7396489751949341</v>
+        <v>0.741285687715968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -980,19 +980,19 @@
         <v>141514</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>124728</v>
+        <v>125815</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>157554</v>
+        <v>157992</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5843911262518845</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5150720934866649</v>
+        <v>0.5195626963848169</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6506285822277394</v>
+        <v>0.6524394869058531</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>376</v>
@@ -1001,19 +1001,19 @@
         <v>398616</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>372978</v>
+        <v>377240</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>421701</v>
+        <v>424493</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6487990260103678</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6070697764823862</v>
+        <v>0.6140067328776309</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6863737042163874</v>
+        <v>0.6909175252024047</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>115132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>96912</v>
+        <v>96302</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>133905</v>
+        <v>133657</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3093004964873586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2603510248050658</v>
+        <v>0.2587143122840319</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3597325635206827</v>
+        <v>0.3590660668805837</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>93</v>
@@ -1051,19 +1051,19 @@
         <v>100642</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>84602</v>
+        <v>84164</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>117428</v>
+        <v>116341</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4156088737481154</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3493714177722606</v>
+        <v>0.3475605130941461</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4849279065133351</v>
+        <v>0.4804373036151831</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>204</v>
@@ -1072,19 +1072,19 @@
         <v>215774</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>192689</v>
+        <v>189897</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>241412</v>
+        <v>237150</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3512009739896322</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3136262957836126</v>
+        <v>0.3090824747975955</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3929302235176137</v>
+        <v>0.3859932671223693</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>323244</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>305176</v>
+        <v>303576</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>343757</v>
+        <v>340577</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7348817464741801</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6938033469296775</v>
+        <v>0.6901665888778008</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7815171964379258</v>
+        <v>0.7742867009353556</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>185</v>
@@ -1197,19 +1197,19 @@
         <v>195815</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>179614</v>
+        <v>178677</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>209683</v>
+        <v>208586</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7319736270795552</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6714108089629937</v>
+        <v>0.6679071176760289</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7838119277169096</v>
+        <v>0.7797107444103971</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>493</v>
@@ -1218,19 +1218,19 @@
         <v>519060</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>493745</v>
+        <v>492189</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>541594</v>
+        <v>544565</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7337819480388114</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6979949684541777</v>
+        <v>0.6957958290825862</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.765638360413928</v>
+        <v>0.7698378137210254</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>116615</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96102</v>
+        <v>99282</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>134683</v>
+        <v>136283</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2651182535258199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2184828035620741</v>
+        <v>0.2257132990646435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3061966530703225</v>
+        <v>0.309833411122199</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -1268,19 +1268,19 @@
         <v>71702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>57834</v>
+        <v>58931</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87903</v>
+        <v>88840</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2680263729204449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2161880722830904</v>
+        <v>0.220289255589603</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3285891910370066</v>
+        <v>0.3320928823239713</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>176</v>
@@ -1289,19 +1289,19 @@
         <v>188316</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>165782</v>
+        <v>162811</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>213631</v>
+        <v>215187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2662180519611886</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2343616395860721</v>
+        <v>0.2301621862789746</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3020050315458223</v>
+        <v>0.3042041709174138</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>227828</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>211940</v>
+        <v>212898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>241397</v>
+        <v>241835</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.789551325698873</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7344915256148676</v>
+        <v>0.7378111043816566</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8365764024186745</v>
+        <v>0.8380931463728318</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>118</v>
@@ -1414,19 +1414,19 @@
         <v>128764</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>116345</v>
+        <v>114976</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140377</v>
+        <v>140707</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7319363386168901</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6613428406132403</v>
+        <v>0.6535570750593198</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7979457291061136</v>
+        <v>0.7998203945726707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>327</v>
@@ -1435,19 +1435,19 @@
         <v>356593</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>336001</v>
+        <v>336129</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>375662</v>
+        <v>374904</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7677293536444421</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7233955159930548</v>
+        <v>0.7236697346067924</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8087842026963251</v>
+        <v>0.8071505009129446</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>60726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47157</v>
+        <v>46719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76614</v>
+        <v>75656</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.210448674301127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1634235975813255</v>
+        <v>0.1619068536271681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2655084743851324</v>
+        <v>0.2621888956183431</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -1485,19 +1485,19 @@
         <v>47159</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35546</v>
+        <v>35216</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59578</v>
+        <v>60947</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2680636613831099</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2020542708938864</v>
+        <v>0.2001796054273292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3386571593867598</v>
+        <v>0.3464429249406801</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>95</v>
@@ -1506,19 +1506,19 @@
         <v>107885</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>88816</v>
+        <v>89574</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128477</v>
+        <v>128349</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2322706463555579</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1912157973036749</v>
+        <v>0.1928494990870556</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2766044840069452</v>
+        <v>0.2763302653932078</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>973422</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>937764</v>
+        <v>939752</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1007942</v>
+        <v>1006461</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7096799659492881</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6836832174107351</v>
+        <v>0.6851323812358691</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7348468487271171</v>
+        <v>0.7337676185540106</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>544</v>
@@ -1631,19 +1631,19 @@
         <v>588198</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>558642</v>
+        <v>558505</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>617128</v>
+        <v>615140</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6537051837807912</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.62085721598238</v>
+        <v>0.620705683077413</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6858568570254209</v>
+        <v>0.6836481164877974</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1462</v>
@@ -1652,19 +1652,19 @@
         <v>1561620</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1512056</v>
+        <v>1509163</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1606545</v>
+        <v>1605809</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6875064068574583</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6656857933474187</v>
+        <v>0.6644121854634324</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7072847948941038</v>
+        <v>0.7069608962565678</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>398213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>363693</v>
+        <v>365174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>433871</v>
+        <v>431883</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2903200340507119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2651531512728829</v>
+        <v>0.2662323814459894</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.316316782589265</v>
+        <v>0.3148676187641309</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>286</v>
@@ -1702,19 +1702,19 @@
         <v>311593</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>282663</v>
+        <v>284651</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>341149</v>
+        <v>341286</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3462948162192088</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3141431429745791</v>
+        <v>0.3163518835122027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3791427840176199</v>
+        <v>0.3792943169225869</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>658</v>
@@ -1723,19 +1723,19 @@
         <v>709806</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>664881</v>
+        <v>665617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>759370</v>
+        <v>762263</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3124935931425417</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2927152051058962</v>
+        <v>0.2930391037434323</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3343142066525812</v>
+        <v>0.3355878145365677</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>127635</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107382</v>
+        <v>112078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145200</v>
+        <v>145339</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4347559662568435</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3657700275296275</v>
+        <v>0.3817660383948436</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4945874603420288</v>
+        <v>0.4950596847500718</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>110</v>
@@ -2088,19 +2088,19 @@
         <v>113002</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97035</v>
+        <v>98220</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129520</v>
+        <v>129657</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4076103998873704</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3500160949478344</v>
+        <v>0.354288047138427</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4671927286379715</v>
+        <v>0.4676844659044139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>229</v>
@@ -2109,19 +2109,19 @@
         <v>240637</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>216462</v>
+        <v>217979</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>264306</v>
+        <v>265240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4215718915043987</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3792191725777804</v>
+        <v>0.3818776381840531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4630367645982315</v>
+        <v>0.4646736317906184</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>165943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>148378</v>
+        <v>148239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>186196</v>
+        <v>181500</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5652440337431566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5054125396579712</v>
+        <v>0.5049403152499282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6342299724703725</v>
+        <v>0.6182339616051564</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -2159,19 +2159,19 @@
         <v>164229</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147711</v>
+        <v>147574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>180196</v>
+        <v>179011</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5923896001126296</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5328072713620284</v>
+        <v>0.5323155340955863</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6499839050521655</v>
+        <v>0.645711952861573</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>310</v>
@@ -2180,19 +2180,19 @@
         <v>330172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>306503</v>
+        <v>305569</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>354347</v>
+        <v>352830</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5784281084956012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5369632354017685</v>
+        <v>0.5353263682093815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6207808274222196</v>
+        <v>0.6181223618159468</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>187613</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>169717</v>
+        <v>169113</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>208043</v>
+        <v>208476</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4804748634275162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4346431735202516</v>
+        <v>0.4330977939384992</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5327966679964421</v>
+        <v>0.5339047626876517</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -2305,19 +2305,19 @@
         <v>130906</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>115090</v>
+        <v>115132</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147258</v>
+        <v>147826</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4847435856423105</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4261769379706192</v>
+        <v>0.4263322495637401</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5452935959892823</v>
+        <v>0.5473960924623019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>305</v>
@@ -2326,19 +2326,19 @@
         <v>318519</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>293710</v>
+        <v>294396</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>345757</v>
+        <v>345958</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4822201060892251</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4446597925049969</v>
+        <v>0.4456992265610931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5234568165878698</v>
+        <v>0.5237607764664491</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>202861</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>182431</v>
+        <v>181998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>220757</v>
+        <v>221361</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5195251365724838</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.467203332003558</v>
+        <v>0.4660952373123483</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5653568264797485</v>
+        <v>0.5669022060615008</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>137</v>
@@ -2376,19 +2376,19 @@
         <v>139147</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>122795</v>
+        <v>122227</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>154963</v>
+        <v>154921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5152564143576895</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4547064040107178</v>
+        <v>0.4526039075376982</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5738230620293814</v>
+        <v>0.5736677504362599</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>329</v>
@@ -2397,19 +2397,19 @@
         <v>342008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>314770</v>
+        <v>314569</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>366817</v>
+        <v>366131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5177798939107749</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4765431834121301</v>
+        <v>0.4762392235335509</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5553402074950031</v>
+        <v>0.554300773438907</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>275010</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>254452</v>
+        <v>254502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>297400</v>
+        <v>295166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6028426262353692</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5577781258489397</v>
+        <v>0.5578880276909364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6519242696029087</v>
+        <v>0.6470267793311849</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>153</v>
@@ -2522,19 +2522,19 @@
         <v>155640</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>136888</v>
+        <v>139550</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172277</v>
+        <v>173728</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5355169526398306</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.470994806063759</v>
+        <v>0.4801554267741609</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5927594254683555</v>
+        <v>0.5977518684911857</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>412</v>
@@ -2543,19 +2543,19 @@
         <v>430650</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>402274</v>
+        <v>403326</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>458325</v>
+        <v>457495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5766420518291674</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5386462435746303</v>
+        <v>0.5400548168609293</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6136982934720446</v>
+        <v>0.6125870117553391</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>181178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>158788</v>
+        <v>161022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>201736</v>
+        <v>201686</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3971573737646307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3480757303970913</v>
+        <v>0.3529732206688151</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4422218741510603</v>
+        <v>0.4421119723090637</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -2593,19 +2593,19 @@
         <v>134995</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118358</v>
+        <v>116907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>153747</v>
+        <v>151085</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4644830473601694</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4072405745316445</v>
+        <v>0.4022481315088143</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5290051939362408</v>
+        <v>0.519844573225839</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>306</v>
@@ -2614,19 +2614,19 @@
         <v>316174</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>288499</v>
+        <v>289329</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>344550</v>
+        <v>343498</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4233579481708326</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3863017065279554</v>
+        <v>0.387412988244661</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4613537564253696</v>
+        <v>0.4599451831390707</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>178365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161998</v>
+        <v>161073</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194537</v>
+        <v>194322</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6482497699328351</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5887629556622863</v>
+        <v>0.5854025190377263</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7070247588414316</v>
+        <v>0.7062443680647912</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -2739,19 +2739,19 @@
         <v>114880</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99807</v>
+        <v>99798</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128565</v>
+        <v>127879</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5919733789160914</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5143017968385023</v>
+        <v>0.514253701725333</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6624928229381726</v>
+        <v>0.658954725120143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -2760,19 +2760,19 @@
         <v>293245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>269751</v>
+        <v>271978</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>315117</v>
+        <v>312742</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.62497423921113</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.574902759658565</v>
+        <v>0.5796485644587748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6715876607405187</v>
+        <v>0.6665263084348065</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>96784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>80612</v>
+        <v>80827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>113151</v>
+        <v>114076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3517502300671649</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2929752411585684</v>
+        <v>0.2937556319352088</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4112370443377137</v>
+        <v>0.4145974809622736</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>75</v>
@@ -2810,19 +2810,19 @@
         <v>79183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65498</v>
+        <v>66184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94256</v>
+        <v>94265</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4080266210839086</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.337507177061827</v>
+        <v>0.341045274879857</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4856982031614976</v>
+        <v>0.485746298274667</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>163</v>
@@ -2831,19 +2831,19 @@
         <v>175967</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>154095</v>
+        <v>156470</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>199461</v>
+        <v>197234</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3750257607888699</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3284123392594799</v>
+        <v>0.3334736915651934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.425097240341435</v>
+        <v>0.4203514355412251</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>768623</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>732266</v>
+        <v>727157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>809491</v>
+        <v>805448</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5430469047901464</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5173596324798546</v>
+        <v>0.5137504163054384</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5719204735359704</v>
+        <v>0.5690645182801477</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>498</v>
@@ -2956,19 +2956,19 @@
         <v>514429</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4984862411218476</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1216</v>
@@ -2977,19 +2977,19 @@
         <v>1283052</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1236845</v>
+        <v>1235037</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1331850</v>
+        <v>1331237</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5242570392921512</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5053769296799143</v>
+        <v>0.5046378945809717</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5441958461600352</v>
+        <v>0.5439453366760414</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>646767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>605899</v>
+        <v>609942</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>683124</v>
+        <v>688233</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4569530952098537</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4280795264640296</v>
+        <v>0.4309354817198525</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4826403675201455</v>
+        <v>0.4862495836945618</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>510</v>
@@ -3027,19 +3027,19 @@
         <v>517553</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>487672</v>
+        <v>484154</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>550978</v>
+        <v>549169</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5015137588781524</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4725583142435112</v>
+        <v>0.4691495103933734</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5339029316886295</v>
+        <v>0.5321495928987855</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1108</v>
@@ -3048,19 +3048,19 @@
         <v>1164320</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1115522</v>
+        <v>1116135</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1210527</v>
+        <v>1212335</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4757429607078488</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4558041538399645</v>
+        <v>0.4560546633239586</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4946230703200855</v>
+        <v>0.4953621054190287</v>
       </c>
     </row>
     <row r="18">
